--- a/bulkRNAseq/metadata_cherry_tomato.xlsx
+++ b/bulkRNAseq/metadata_cherry_tomato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurizio.aurora/Dropbox (HSR Global)/WORKSPACE/Bonanomi/Bonanomi_1287_scRNA_injury/7_bioinfo/public_data/Corada_embryo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurizio.aurora/Documents/GitHub/MyOwnGithub/periferal_nerve_injury/bulkRNAseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE98E84F-7B4B-2F4B-AE58-1382AEE75ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90C03D9-8972-8947-BEB3-330AF95DADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20040" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14800" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>sample</t>
   </si>
   <si>
+    <t>reporter</t>
+  </si>
+  <si>
     <t>nerve</t>
   </si>
   <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
     <t>exp</t>
   </si>
   <si>
+    <t>DB_1_127</t>
+  </si>
+  <si>
+    <t>KDR_cherry</t>
+  </si>
+  <si>
     <t>crush_d7</t>
   </si>
   <si>
+    <t>WT</t>
+  </si>
+  <si>
     <t>1292</t>
   </si>
   <si>
+    <t>DB_2_130</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
     <t>DB_3_131</t>
   </si>
   <si>
+    <t>Tomato</t>
+  </si>
+  <si>
     <t>intact</t>
   </si>
   <si>
+    <t>na</t>
+  </si>
+  <si>
     <t>DB_4_133</t>
   </si>
   <si>
+    <t>DB_5_148</t>
+  </si>
+  <si>
+    <t>DB_6_151</t>
+  </si>
+  <si>
     <t>DB_7_152</t>
   </si>
   <si>
@@ -67,9 +100,21 @@
     <t>DB_12_191</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>1133</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
@@ -86,39 +131,6 @@
   </si>
   <si>
     <t>98</t>
-  </si>
-  <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>Bonanomi</t>
-  </si>
-  <si>
-    <t>Corada</t>
-  </si>
-  <si>
-    <t>E15.5_WT1</t>
-  </si>
-  <si>
-    <t>E15.5_WT2</t>
-  </si>
-  <si>
-    <t>E15.5_WT3</t>
-  </si>
-  <si>
-    <t>Adult_WT1</t>
-  </si>
-  <si>
-    <t>Adult_WT2</t>
-  </si>
-  <si>
-    <t>embryo</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>Adult_WT3</t>
   </si>
 </sst>
 </file>
@@ -452,306 +464,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/bulkRNAseq/metadata_cherry_tomato.xlsx
+++ b/bulkRNAseq/metadata_cherry_tomato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurizio.aurora/Documents/GitHub/MyOwnGithub/periferal_nerve_injury/bulkRNAseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90C03D9-8972-8947-BEB3-330AF95DADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB4FADF-458D-6442-A8C6-F35DEB7E8B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14800" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>sample</t>
   </si>
@@ -52,9 +52,6 @@
     <t>1292</t>
   </si>
   <si>
-    <t>DB_2_130</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>104</t>
-  </si>
-  <si>
-    <t>72</t>
   </si>
   <si>
     <t>74</t>
@@ -464,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,16 +502,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -525,16 +519,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -545,13 +539,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -568,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -579,13 +573,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -596,13 +590,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -613,13 +607,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -627,16 +621,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -647,13 +641,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -664,13 +658,13 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -681,21 +675,21 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -704,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -721,10 +715,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -732,16 +726,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -749,16 +743,16 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -766,16 +760,16 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -783,16 +777,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -800,16 +794,16 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -817,50 +811,16 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
